--- a/structure-data_sample-excel/Data Control.xlsx
+++ b/structure-data_sample-excel/Data Control.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nhom9_DW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace-Python\Data-Warehouse\structure-data_sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C577BC62-C921-49C3-B878-217348DD12E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916582AC-73DA-4D98-B9C2-E5D3315A6AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{59B2C3CB-7028-4F48-80D1-84E5AE089023}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{59B2C3CB-7028-4F48-80D1-84E5AE089023}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
   <si>
     <t>Giá</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Tên của tiến trình ETL hoặc job đang chạy</t>
   </si>
   <si>
-    <t>extract_product_data</t>
-  </si>
-  <si>
     <t>source_system</t>
   </si>
   <si>
@@ -89,66 +86,24 @@
     <t>Tên bảng hoặc file đích trong DW</t>
   </si>
   <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>Thời điểm bắt đầu job</t>
-  </si>
-  <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>Thời điểm kết thúc job</t>
-  </si>
-  <si>
-    <t>duration_seconds</t>
-  </si>
-  <si>
-    <t>Thời gian chạy job (tính bằng giây)</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
     <t>rows_extracted</t>
   </si>
   <si>
     <t>Số lượng dòng được lấy ra</t>
   </si>
   <si>
-    <t>rows_transformed</t>
-  </si>
-  <si>
-    <t>Số lượng dòng được transform</t>
-  </si>
-  <si>
-    <t>rows_loaded</t>
-  </si>
-  <si>
-    <t>error_message</t>
-  </si>
-  <si>
     <t>Mô tả lỗi nếu job thất bại</t>
   </si>
   <si>
-    <t>Timeout while connecting to source</t>
-  </si>
-  <si>
-    <t>log_level</t>
-  </si>
-  <si>
-    <t>INFO</t>
-  </si>
-  <si>
     <t>created_at</t>
   </si>
   <si>
@@ -158,12 +113,6 @@
     <t>created_by</t>
   </si>
   <si>
-    <t>Người hoặc service tạo log</t>
-  </si>
-  <si>
-    <t>etl_service</t>
-  </si>
-  <si>
     <t>2025_10_12_09:15:22</t>
   </si>
   <si>
@@ -329,9 +278,6 @@
     <t>dw.table_name</t>
   </si>
   <si>
-    <t>Số lượng dòng được nạp vào</t>
-  </si>
-  <si>
     <t>metadata_id</t>
   </si>
   <si>
@@ -414,9 +360,6 @@
   </si>
   <si>
     <t>Trạng thái job: SUCCESS, FAILED, RUNNING, SKIPPED</t>
-  </si>
-  <si>
-    <t>Mức độ log (INFO, WARNING, ERROR)</t>
   </si>
   <si>
     <r>
@@ -517,12 +460,33 @@
   <si>
     <t xml:space="preserve"> size_memory,..</t>
   </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>log_time</t>
+  </si>
+  <si>
+    <t>EXTRACT</t>
+  </si>
+  <si>
+    <t>TGDĐ</t>
+  </si>
+  <si>
+    <t>STAGING</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>Đã crawl dữ liệu từ TGDĐ thành công</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +535,13 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -580,7 +551,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -699,11 +670,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,6 +777,12 @@
     <xf numFmtId="22" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,7 +1197,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
@@ -1223,7 +1230,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
@@ -1252,9 +1259,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1284,7 +1293,7 @@
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
@@ -1606,8 +1615,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{88781F6D-936E-43A3-AE6B-B3EB23D0C39D}" name="Table3" displayName="Table3" ref="A5:D20" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="A5:D20" xr:uid="{88781F6D-936E-43A3-AE6B-B3EB23D0C39D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{88781F6D-936E-43A3-AE6B-B3EB23D0C39D}" name="Table3" displayName="Table3" ref="A5:D13" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="A5:D13" xr:uid="{88781F6D-936E-43A3-AE6B-B3EB23D0C39D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1958,7 +1967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91823106-6486-485F-8F5B-D8D4E28DA9F6}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H20" sqref="H20:H21"/>
     </sheetView>
   </sheetViews>
@@ -1976,7 +1985,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1"/>
@@ -1996,98 +2005,98 @@
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
@@ -2095,83 +2104,83 @@
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D17" s="11">
         <v>1</v>
@@ -2179,13 +2188,13 @@
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D18" s="11">
         <v>5</v>
@@ -2193,30 +2202,30 @@
     </row>
     <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="9" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="14" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2232,8 +2241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06D11E4-4F31-47E1-B5EC-CF076AB5C8F1}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2249,7 +2258,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.15" customHeight="1"/>
@@ -2269,219 +2278,129 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>44</v>
+      <c r="B6" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1">
+      <c r="A8" s="26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="D8" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="C9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="D9" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1">
+      <c r="A13" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1">
-      <c r="A20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
+      <c r="D13" s="24">
+        <v>45984.967777777776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1"/>
+    <row r="15" spans="1:4" ht="30" customHeight="1"/>
+    <row r="16" spans="1:4" ht="30" customHeight="1"/>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
+    <row r="20" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2505,7 +2424,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1"/>
@@ -2525,41 +2444,41 @@
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>0</v>
@@ -2567,69 +2486,69 @@
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D12" s="20">
         <v>1</v>
@@ -2637,30 +2556,30 @@
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2691,7 +2610,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1"/>
@@ -2712,83 +2631,83 @@
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20">
         <v>12500</v>
@@ -2796,13 +2715,13 @@
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20">
         <v>35</v>
@@ -2810,13 +2729,13 @@
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20">
         <v>3</v>
@@ -2824,13 +2743,13 @@
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20">
         <v>1</v>
@@ -2838,13 +2757,13 @@
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D15" s="20">
         <v>58</v>
@@ -2852,13 +2771,13 @@
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="D16" s="20">
         <v>1</v>
@@ -2866,58 +2785,58 @@
     </row>
     <row r="17" spans="1:4" ht="31.5">
       <c r="A17" s="18" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45">
       <c r="A18" s="18" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="22" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
